--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06635000000000001</v>
+        <v>0.05135000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0804</v>
+        <v>0.0595</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2">
-        <v>60.937</v>
+        <v>-308.129</v>
       </c>
       <c r="L2">
-        <v>0.339126708516985</v>
+        <v>1.47169604050246</v>
       </c>
       <c r="M2">
-        <v>32.752</v>
+        <v>28.7206</v>
       </c>
       <c r="N2">
-        <v>0.03903043592249208</v>
+        <v>0.03479091966275802</v>
       </c>
       <c r="O2">
-        <v>0.53747312798464</v>
+        <v>-0.0932096621869412</v>
       </c>
       <c r="P2">
-        <v>32.752</v>
+        <v>28.7206</v>
       </c>
       <c r="Q2">
-        <v>0.03903043592249208</v>
+        <v>0.03479091966275802</v>
       </c>
       <c r="R2">
-        <v>0.53747312798464</v>
+        <v>-0.0932096621869412</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>737.48</v>
+        <v>757.163</v>
       </c>
       <c r="V2">
-        <v>0.8788521581619277</v>
+        <v>0.9171952224052718</v>
       </c>
       <c r="W2">
-        <v>0.09463204747774481</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="X2">
-        <v>0.04374986318322092</v>
+        <v>0.03037073340028128</v>
       </c>
       <c r="Y2">
-        <v>0.0508821842945239</v>
+        <v>0.0622218591923113</v>
       </c>
       <c r="Z2">
-        <v>0.2301691606526634</v>
+        <v>-0.3436198829161654</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04693759029699077</v>
+        <v>0.03477253469452207</v>
       </c>
       <c r="AC2">
-        <v>-0.04693759029699077</v>
+        <v>-0.03477253469452207</v>
       </c>
       <c r="AD2">
-        <v>920.42</v>
+        <v>735.8199999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>920.42</v>
+        <v>735.8199999999999</v>
       </c>
       <c r="AG2">
-        <v>182.9399999999999</v>
+        <v>-21.34300000000007</v>
       </c>
       <c r="AH2">
-        <v>0.5230966832617245</v>
+        <v>0.4712746743182138</v>
       </c>
       <c r="AI2">
-        <v>0.5720198624049917</v>
+        <v>0.7809180153886972</v>
       </c>
       <c r="AJ2">
-        <v>0.1789879461490294</v>
+        <v>-0.02654017710031508</v>
       </c>
       <c r="AK2">
-        <v>0.2098922658589474</v>
+        <v>-0.1153133391324084</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.136</v>
+        <v>0.127</v>
       </c>
       <c r="E3">
-        <v>0.178</v>
+        <v>0.028</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.19</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
-        <v>0.4068877551020408</v>
+        <v>0.3314917127071823</v>
       </c>
       <c r="M3">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="N3">
-        <v>0.0607843137254902</v>
+        <v>0.05047619047619048</v>
       </c>
       <c r="O3">
-        <v>0.4858934169278997</v>
+        <v>0.6625000000000001</v>
       </c>
       <c r="P3">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q3">
-        <v>0.0607843137254902</v>
+        <v>0.05047619047619048</v>
       </c>
       <c r="R3">
-        <v>0.4858934169278997</v>
+        <v>0.6625000000000001</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>36.3</v>
+        <v>51.8</v>
       </c>
       <c r="V3">
-        <v>1.423529411764706</v>
+        <v>1.644444444444444</v>
       </c>
       <c r="W3">
-        <v>0.1463302752293578</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="X3">
-        <v>0.03441173484957059</v>
+        <v>0.0235517385008893</v>
       </c>
       <c r="Y3">
-        <v>0.1119185403797872</v>
+        <v>0.07989653736117966</v>
       </c>
       <c r="Z3">
-        <v>-0.3638051044083527</v>
+        <v>-0.9551451187335095</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.03737642711558053</v>
+        <v>0.02460093181008313</v>
       </c>
       <c r="AC3">
-        <v>-0.03737642711558053</v>
+        <v>-0.02460093181008313</v>
       </c>
       <c r="AD3">
-        <v>5.52</v>
+        <v>2.42</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.52</v>
+        <v>2.42</v>
       </c>
       <c r="AG3">
-        <v>-30.78</v>
+        <v>-49.38</v>
       </c>
       <c r="AH3">
-        <v>0.1779497098646035</v>
+        <v>0.0713443396226415</v>
       </c>
       <c r="AI3">
-        <v>0.1922005571030641</v>
+        <v>0.09194528875379938</v>
       </c>
       <c r="AJ3">
-        <v>5.829545454545457</v>
+        <v>2.761744966442953</v>
       </c>
       <c r="AK3">
-        <v>4.060686015831135</v>
+        <v>1.937990580847724</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.5</v>
+        <v>9.48</v>
       </c>
       <c r="L4">
-        <v>0.496031746031746</v>
+        <v>0.4270270270270271</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3.16</v>
       </c>
       <c r="N4">
-        <v>0.01995565410199556</v>
+        <v>0.01875370919881306</v>
       </c>
       <c r="O4">
-        <v>0.288</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.16</v>
       </c>
       <c r="Q4">
-        <v>0.01995565410199556</v>
+        <v>0.01875370919881306</v>
       </c>
       <c r="R4">
-        <v>0.288</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -877,55 +877,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>174.3</v>
+        <v>179</v>
       </c>
       <c r="V4">
-        <v>0.9661862527716186</v>
+        <v>1.062314540059347</v>
       </c>
       <c r="W4">
-        <v>0.2181500872600349</v>
+        <v>0.1442922374429224</v>
       </c>
       <c r="X4">
-        <v>0.03625882750654778</v>
+        <v>0.02577425926377085</v>
       </c>
       <c r="Y4">
-        <v>0.1818912597534871</v>
+        <v>0.1185179781791515</v>
       </c>
       <c r="Z4">
-        <v>-0.5971563981042656</v>
+        <v>-0.6235955056179772</v>
       </c>
       <c r="AA4">
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.03840883851025485</v>
+        <v>0.0286309017360822</v>
       </c>
       <c r="AC4">
-        <v>-0.03840883851025485</v>
+        <v>-0.0286309017360822</v>
       </c>
       <c r="AD4">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AG4">
-        <v>-101.3</v>
+        <v>-129</v>
       </c>
       <c r="AH4">
-        <v>0.2880820836621942</v>
+        <v>0.2288329519450801</v>
       </c>
       <c r="AI4">
-        <v>0.5263157894736843</v>
+        <v>0.4105090311986864</v>
       </c>
       <c r="AJ4">
-        <v>-1.280657395701644</v>
+        <v>-3.265822784810127</v>
       </c>
       <c r="AK4">
-        <v>2.845505617977528</v>
+        <v>2.255244755244755</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>National Housing Finance and Investments Limited (DSE:NHFIL)</t>
+          <t>GSP Finance Company (Bangladesh) Limited (DSE:GSPFINANCE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0892</v>
+        <v>0.0234</v>
       </c>
       <c r="E5">
-        <v>0.0635</v>
+        <v>0.07629999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -969,28 +969,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.31</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
-        <v>0.4454912516823688</v>
+        <v>0.6869009584664537</v>
       </c>
       <c r="M5">
-        <v>1.26</v>
+        <v>0.9996000000000002</v>
       </c>
       <c r="N5">
-        <v>0.02863636363636364</v>
+        <v>0.02966172106824926</v>
       </c>
       <c r="O5">
-        <v>0.3806646525679758</v>
+        <v>0.4649302325581396</v>
       </c>
       <c r="P5">
-        <v>1.26</v>
+        <v>0.9996000000000002</v>
       </c>
       <c r="Q5">
-        <v>0.02863636363636364</v>
+        <v>0.02966172106824926</v>
       </c>
       <c r="R5">
-        <v>0.3806646525679758</v>
+        <v>0.4649302325581396</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -999,55 +999,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>46.8</v>
+        <v>4.54</v>
       </c>
       <c r="V5">
-        <v>1.063636363636363</v>
+        <v>0.1347181008902077</v>
       </c>
       <c r="W5">
-        <v>0.1671717171717172</v>
+        <v>0.06304985337243402</v>
       </c>
       <c r="X5">
-        <v>0.03570005387750597</v>
+        <v>0.02847331873052943</v>
       </c>
       <c r="Y5">
-        <v>0.1314716632942112</v>
+        <v>0.03457653464190459</v>
       </c>
       <c r="Z5">
-        <v>-0.1945026178010472</v>
+        <v>0.05672345052555273</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03893084690295566</v>
+        <v>0.03200092583883299</v>
       </c>
       <c r="AC5">
-        <v>-0.03893084690295566</v>
+        <v>-0.03200092583883299</v>
       </c>
       <c r="AD5">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="AG5">
-        <v>-31.5</v>
+        <v>14.46</v>
       </c>
       <c r="AH5">
-        <v>0.2580101180438449</v>
+        <v>0.3605313092979127</v>
       </c>
       <c r="AI5">
-        <v>0.4135135135135135</v>
+        <v>0.3448275862068965</v>
       </c>
       <c r="AJ5">
-        <v>-2.519999999999999</v>
+        <v>0.300249169435216</v>
       </c>
       <c r="AK5">
-        <v>3.214285714285715</v>
+        <v>0.285996835443038</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0471</v>
+        <v>-0.0054</v>
       </c>
       <c r="E6">
-        <v>-0.0518</v>
+        <v>-0.106</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1091,28 +1091,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
-        <v>0.2491379310344828</v>
+        <v>0.2283372365339579</v>
       </c>
       <c r="M6">
         <v>2.17</v>
       </c>
       <c r="N6">
-        <v>0.05695538057742782</v>
+        <v>0.05549872122762148</v>
       </c>
       <c r="O6">
-        <v>0.7508650519031141</v>
+        <v>1.112820512820513</v>
       </c>
       <c r="P6">
         <v>2.17</v>
       </c>
       <c r="Q6">
-        <v>0.05695538057742782</v>
+        <v>0.05549872122762148</v>
       </c>
       <c r="R6">
-        <v>0.7508650519031141</v>
+        <v>1.112820512820513</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1121,55 +1121,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>37</v>
+        <v>34.6</v>
       </c>
       <c r="V6">
-        <v>0.9711286089238845</v>
+        <v>0.8849104859335039</v>
       </c>
       <c r="W6">
-        <v>0.0793956043956044</v>
+        <v>0.05298913043478262</v>
       </c>
       <c r="X6">
-        <v>0.03666653302983744</v>
+        <v>0.02750544628349827</v>
       </c>
       <c r="Y6">
-        <v>0.04272907136576697</v>
+        <v>0.02548368415128434</v>
       </c>
       <c r="Z6">
-        <v>1.12621359223301</v>
+        <v>0.5083333333333334</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04023174568114809</v>
+        <v>0.03251159319451218</v>
       </c>
       <c r="AC6">
-        <v>-0.04023174568114809</v>
+        <v>-0.03251159319451218</v>
       </c>
       <c r="AD6">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="AG6">
-        <v>-20</v>
+        <v>-16.3</v>
       </c>
       <c r="AH6">
-        <v>0.308529945553539</v>
+        <v>0.318815331010453</v>
       </c>
       <c r="AI6">
-        <v>0.3159851301115242</v>
+        <v>0.3345521023765996</v>
       </c>
       <c r="AJ6">
-        <v>-1.104972375690608</v>
+        <v>-0.7149122807017544</v>
       </c>
       <c r="AK6">
-        <v>-1.190476190476191</v>
+        <v>-0.8109452736318409</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIDAS Financing Limited (DSE:MIDASFIN)</t>
+          <t>IPDC Finance Limited (DSE:IPDC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1194,6 +1194,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.33</v>
+      </c>
+      <c r="E7">
+        <v>0.226</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1207,82 +1213,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-1.42</v>
+        <v>7.33</v>
       </c>
       <c r="L7">
-        <v>-0.6543778801843317</v>
+        <v>0.2819230769230769</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>4.15</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.03432588916459885</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.5661664392905866</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>4.15</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.03432588916459885</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.5661664392905866</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>5.56</v>
+        <v>134.3</v>
       </c>
       <c r="V7">
-        <v>0.2386266094420601</v>
+        <v>1.110835401157982</v>
       </c>
       <c r="W7">
-        <v>-0.08160919540229886</v>
+        <v>0.1134674922600619</v>
       </c>
       <c r="X7">
-        <v>0.04016450551559439</v>
+        <v>0.02906990984563843</v>
       </c>
       <c r="Y7">
-        <v>-0.1217737009178932</v>
+        <v>0.08439758241442349</v>
       </c>
       <c r="Z7">
-        <v>0.07763864042933812</v>
+        <v>0.5241935483870966</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.043752016308744</v>
+        <v>0.03259614399327662</v>
       </c>
       <c r="AC7">
-        <v>-0.043752016308744</v>
+        <v>-0.03259614399327662</v>
       </c>
       <c r="AD7">
-        <v>18.7</v>
+        <v>75.3</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>18.7</v>
+        <v>75.3</v>
       </c>
       <c r="AG7">
-        <v>13.14</v>
+        <v>-59.00000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.4452380952380952</v>
+        <v>0.3837920489296636</v>
       </c>
       <c r="AI7">
-        <v>0.5404624277456647</v>
+        <v>0.5154004106776181</v>
       </c>
       <c r="AJ7">
-        <v>0.3605927552140505</v>
+        <v>-0.9531502423263332</v>
       </c>
       <c r="AK7">
-        <v>0.4524793388429753</v>
+        <v>-5.000000000000008</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1299,7 +1308,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IPDC Finance Limited (DSE:IPDC)</t>
+          <t>IDLC Finance Limited (DSE:IDLC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1308,10 +1317,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.418</v>
+        <v>0.0566</v>
       </c>
       <c r="E8">
-        <v>0.29</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1326,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.22</v>
+        <v>24.2</v>
       </c>
       <c r="L8">
-        <v>0.3085470085470086</v>
+        <v>0.378716744913928</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>15.3</v>
       </c>
       <c r="N8">
-        <v>0.01688555347091933</v>
+        <v>0.05421686746987953</v>
       </c>
       <c r="O8">
-        <v>0.2493074792243767</v>
+        <v>0.6322314049586777</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>15.3</v>
       </c>
       <c r="Q8">
-        <v>0.01688555347091933</v>
+        <v>0.05421686746987953</v>
       </c>
       <c r="R8">
-        <v>0.2493074792243767</v>
+        <v>0.6322314049586777</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1356,55 +1365,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>87.2</v>
+        <v>298.7</v>
       </c>
       <c r="V8">
-        <v>0.8180112570356474</v>
+        <v>1.05846917080085</v>
       </c>
       <c r="W8">
-        <v>0.1782716049382716</v>
+        <v>0.1501240694789082</v>
       </c>
       <c r="X8">
-        <v>0.03893488067417074</v>
+        <v>0.03080461832679959</v>
       </c>
       <c r="Y8">
-        <v>0.1393367242641009</v>
+        <v>0.1193194511521086</v>
       </c>
       <c r="Z8">
-        <v>0.4134275618374558</v>
+        <v>0.6698113207547167</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0438358940887787</v>
+        <v>0.0341043821239676</v>
       </c>
       <c r="AC8">
-        <v>-0.0438358940887787</v>
+        <v>-0.0341043821239676</v>
       </c>
       <c r="AD8">
-        <v>72.2</v>
+        <v>224.2</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>72.2</v>
+        <v>224.2</v>
       </c>
       <c r="AG8">
-        <v>-15</v>
+        <v>-74.5</v>
       </c>
       <c r="AH8">
-        <v>0.4038031319910514</v>
+        <v>0.4427330173775672</v>
       </c>
       <c r="AI8">
-        <v>0.5277777777777778</v>
+        <v>0.570628658691779</v>
       </c>
       <c r="AJ8">
-        <v>-0.1637554585152839</v>
+        <v>-0.3586904188733751</v>
       </c>
       <c r="AK8">
-        <v>-0.3024193548387097</v>
+        <v>-0.7908704883227177</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1421,7 +1430,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSP Finance Company (Bangladesh) Limited (DSE:GSPFINANCE)</t>
+          <t>MIDAS Financing Limited (DSE:MIDASFIN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1429,12 +1438,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.216</v>
-      </c>
-      <c r="E9">
-        <v>0.23</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1448,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="L9">
-        <v>0.567699836867863</v>
+        <v>1.568807339449541</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>0.263</v>
       </c>
       <c r="N9">
-        <v>0.119047619047619</v>
+        <v>0.00870860927152318</v>
       </c>
       <c r="O9">
-        <v>0.7902298850574713</v>
+        <v>0.07690058479532164</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>0.263</v>
       </c>
       <c r="Q9">
-        <v>0.119047619047619</v>
+        <v>0.00870860927152318</v>
       </c>
       <c r="R9">
-        <v>0.7902298850574713</v>
+        <v>0.07690058479532164</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1478,55 +1481,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>4.62</v>
+        <v>4.12</v>
       </c>
       <c r="V9">
-        <v>0.2</v>
+        <v>0.1364238410596026</v>
       </c>
       <c r="W9">
-        <v>0.1032640949554896</v>
+        <v>0.2150943396226415</v>
       </c>
       <c r="X9">
-        <v>0.04320703132888913</v>
+        <v>0.02993684847376298</v>
       </c>
       <c r="Y9">
-        <v>0.06005706362660047</v>
+        <v>0.1851574911488785</v>
       </c>
       <c r="Z9">
-        <v>0.1203140333660451</v>
+        <v>0.07506887052341597</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04584811977185657</v>
+        <v>0.03544068726507655</v>
       </c>
       <c r="AC9">
-        <v>-0.04584811977185657</v>
+        <v>-0.03544068726507655</v>
       </c>
       <c r="AD9">
-        <v>25.7</v>
+        <v>21.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>25.7</v>
+        <v>21.4</v>
       </c>
       <c r="AG9">
-        <v>21.08</v>
+        <v>17.28</v>
       </c>
       <c r="AH9">
-        <v>0.5266393442622951</v>
+        <v>0.4147286821705427</v>
       </c>
       <c r="AI9">
-        <v>0.4297658862876254</v>
+        <v>0.5390428211586901</v>
       </c>
       <c r="AJ9">
-        <v>0.4771389769126301</v>
+        <v>0.3639427127211457</v>
       </c>
       <c r="AK9">
-        <v>0.3820224719101123</v>
+        <v>0.4856661045531197</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1543,7 +1546,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IDLC Finance Limited (DSE:IDLC)</t>
+          <t>Phoenix Finance &amp; Investments Limited (DSE:PHOENIXFIN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1552,10 +1555,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.08560000000000001</v>
+        <v>0.0461</v>
       </c>
       <c r="E10">
-        <v>0.0973</v>
+        <v>0.171</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1570,85 +1573,82 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.6</v>
+        <v>2.99</v>
       </c>
       <c r="L10">
-        <v>0.3356164383561644</v>
+        <v>0.2960396039603961</v>
       </c>
       <c r="M10">
-        <v>15.6</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.07738095238095238</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.7959183673469387</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>15.6</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.07738095238095238</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.7959183673469387</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>247.7</v>
+        <v>13.8</v>
       </c>
       <c r="V10">
-        <v>1.228670634920635</v>
+        <v>0.3039647577092511</v>
       </c>
       <c r="W10">
-        <v>0.1236593059936909</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="X10">
-        <v>0.04114315251092066</v>
+        <v>0.03118994916689539</v>
       </c>
       <c r="Y10">
-        <v>0.08251615348277021</v>
+        <v>0.05399523601828979</v>
       </c>
       <c r="Z10">
-        <v>0.7506426735218508</v>
+        <v>0.1485294117647059</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04585256669403456</v>
+        <v>0.03807429129541839</v>
       </c>
       <c r="AC10">
-        <v>-0.04585256669403456</v>
+        <v>-0.03807429129541839</v>
       </c>
       <c r="AD10">
-        <v>181.9</v>
+        <v>37.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>181.9</v>
+        <v>37.8</v>
       </c>
       <c r="AG10">
-        <v>-65.79999999999998</v>
+        <v>24</v>
       </c>
       <c r="AH10">
-        <v>0.4743155149934811</v>
+        <v>0.4543269230769231</v>
       </c>
       <c r="AI10">
-        <v>0.5301661323229379</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="AJ10">
-        <v>-0.4845360824742266</v>
+        <v>0.345821325648415</v>
       </c>
       <c r="AK10">
-        <v>-0.6897274633123688</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phoenix Finance &amp; Investments Limited (DSE:PHOENIXFIN)</t>
+          <t>First Finance Limited (DSE:FIRSTFIN)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1673,29 +1673,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D11">
-        <v>-0.00239</v>
-      </c>
-      <c r="E11">
-        <v>-0.06150000000000001</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>-4.98</v>
       </c>
       <c r="L11">
-        <v>0.3193960511033682</v>
+        <v>2.515151515151516</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1704,7 +1698,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1713,61 +1707,61 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>10.6</v>
+        <v>4.2</v>
       </c>
       <c r="V11">
-        <v>0.2994350282485876</v>
+        <v>0.4708520179372198</v>
       </c>
       <c r="W11">
-        <v>0.08308157099697885</v>
+        <v>-0.4654205607476636</v>
       </c>
       <c r="X11">
-        <v>0.0442926950375527</v>
+        <v>0.03807098322947775</v>
       </c>
       <c r="Y11">
-        <v>0.03878887595942615</v>
+        <v>-0.5034915439771414</v>
       </c>
       <c r="Z11">
-        <v>0.1134387351778656</v>
+        <v>-0.2302325581395348</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04802261389994697</v>
+        <v>0.04116406302952076</v>
       </c>
       <c r="AC11">
-        <v>-0.04802261389994697</v>
+        <v>-0.04116406302952076</v>
       </c>
       <c r="AD11">
-        <v>43.3</v>
+        <v>13.5</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>43.3</v>
+        <v>13.5</v>
       </c>
       <c r="AG11">
-        <v>32.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.5501905972045744</v>
+        <v>0.6021409455842996</v>
       </c>
       <c r="AI11">
-        <v>0.5487959442332065</v>
+        <v>0.7056978567694721</v>
       </c>
       <c r="AJ11">
-        <v>0.4801762114537445</v>
+        <v>0.5104281009879255</v>
       </c>
       <c r="AK11">
-        <v>0.4787701317715958</v>
+        <v>0.6229068988613531</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1784,7 +1778,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uttara Finance and Investments Limited (DSE:UTTARAFIN)</t>
+          <t>Bay Leasing &amp; Investment Limited (DSE:BAYLEASING)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1793,10 +1787,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0366</v>
+        <v>0.257</v>
       </c>
       <c r="E12">
-        <v>0.0238</v>
+        <v>0.526</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1811,28 +1805,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.7</v>
+        <v>3.04</v>
       </c>
       <c r="L12">
-        <v>0.6018957345971563</v>
+        <v>0.610441767068273</v>
       </c>
       <c r="M12">
-        <v>2.97</v>
+        <v>0.947</v>
       </c>
       <c r="N12">
-        <v>0.03662145499383478</v>
+        <v>0.02505291005291005</v>
       </c>
       <c r="O12">
-        <v>0.2338582677165355</v>
+        <v>0.3115131578947368</v>
       </c>
       <c r="P12">
-        <v>2.97</v>
+        <v>0.947</v>
       </c>
       <c r="Q12">
-        <v>0.03662145499383478</v>
+        <v>0.02505291005291005</v>
       </c>
       <c r="R12">
-        <v>0.2338582677165355</v>
+        <v>0.3115131578947368</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1841,55 +1835,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>31.9</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>0.3933415536374846</v>
+        <v>0.2116402116402117</v>
       </c>
       <c r="W12">
-        <v>0.1615776081424936</v>
+        <v>0.1</v>
       </c>
       <c r="X12">
-        <v>0.04452281668029343</v>
+        <v>0.0426139467434115</v>
       </c>
       <c r="Y12">
-        <v>0.1170547914622002</v>
+        <v>0.05738605325658851</v>
       </c>
       <c r="Z12">
-        <v>0.1467315716272601</v>
+        <v>0.04688824027869316</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04815686767063336</v>
+        <v>0.04508430332579993</v>
       </c>
       <c r="AC12">
-        <v>-0.04815686767063336</v>
+        <v>-0.04508430332579993</v>
       </c>
       <c r="AD12">
-        <v>101.1</v>
+        <v>74.2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>101.1</v>
+        <v>74.2</v>
       </c>
       <c r="AG12">
-        <v>69.19999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="AH12">
-        <v>0.5548847420417125</v>
+        <v>0.6625</v>
       </c>
       <c r="AI12">
-        <v>0.5265624999999999</v>
+        <v>0.6889507892293407</v>
       </c>
       <c r="AJ12">
-        <v>0.4604125083166999</v>
+        <v>0.6365384615384616</v>
       </c>
       <c r="AK12">
-        <v>0.4322298563397876</v>
+        <v>0.6639919759277834</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1906,7 +1900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bangladesh Finance And Investment Company Limited (DSE:BDFINANCE)</t>
+          <t>Premier Leasing &amp; Finance Limited (DSE:PREMIERLEA)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1915,10 +1909,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.0243</v>
+        <v>-0.0294</v>
       </c>
       <c r="E13">
-        <v>0.178</v>
+        <v>-0.0234</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1933,82 +1927,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.74</v>
+        <v>0.291</v>
       </c>
       <c r="L13">
-        <v>0.6121112929623568</v>
+        <v>0.1581521739130435</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>0.141</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.0121551724137931</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>0.141</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.0121551724137931</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>8.85</v>
+        <v>24.1</v>
       </c>
       <c r="V13">
-        <v>0.4492385786802031</v>
+        <v>2.077586206896552</v>
       </c>
       <c r="W13">
-        <v>0.1375</v>
+        <v>0.01222689075630252</v>
       </c>
       <c r="X13">
-        <v>0.05266490225806382</v>
+        <v>0.07252357211775101</v>
       </c>
       <c r="Y13">
-        <v>0.08483509774193619</v>
+        <v>-0.06029668136144849</v>
       </c>
       <c r="Z13">
-        <v>0.09299847792998479</v>
+        <v>0.03262411347517731</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05158983572193624</v>
+        <v>0.04815775934083929</v>
       </c>
       <c r="AC13">
-        <v>-0.05158983572193624</v>
+        <v>-0.04815775934083929</v>
       </c>
       <c r="AD13">
-        <v>40.9</v>
+        <v>57.1</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>40.9</v>
+        <v>57.1</v>
       </c>
       <c r="AG13">
-        <v>32.05</v>
+        <v>33</v>
       </c>
       <c r="AH13">
-        <v>0.6749174917491749</v>
+        <v>0.8311499272197962</v>
       </c>
       <c r="AI13">
-        <v>0.5291073738680466</v>
+        <v>0.6570771001150748</v>
       </c>
       <c r="AJ13">
-        <v>0.6193236714975845</v>
+        <v>0.7399103139013453</v>
       </c>
       <c r="AK13">
-        <v>0.4682249817384953</v>
+        <v>0.5254777070063694</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2025,7 +2022,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>First Finance Limited (DSE:FIRSTFIN)</t>
+          <t>International Leasing and Financial Services Limited (DSE:ILFSL)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2046,10 +2043,10 @@
         <v>-0</v>
       </c>
       <c r="K14">
-        <v>-4.98</v>
+        <v>-360.4</v>
       </c>
       <c r="L14">
-        <v>2.515151515151516</v>
+        <v>1.008111888111888</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2073,536 +2070,60 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>4.2</v>
+        <v>0.003</v>
       </c>
       <c r="V14">
-        <v>0.7304347826086957</v>
+        <v>0.0001910828025477707</v>
       </c>
       <c r="W14">
-        <v>-0.4654205607476636</v>
+        <v>-10.69436201780415</v>
       </c>
       <c r="X14">
-        <v>0.05533155203773864</v>
+        <v>0.1145704504765327</v>
       </c>
       <c r="Y14">
-        <v>-0.5207521127854022</v>
+        <v>-10.80893246828069</v>
       </c>
       <c r="Z14">
-        <v>-0.2302325581395348</v>
+        <v>-2.137429225682632</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.05234434521837761</v>
+        <v>0.05310952293004274</v>
       </c>
       <c r="AC14">
-        <v>-0.05234434521837761</v>
+        <v>-0.05310952293004274</v>
       </c>
       <c r="AD14">
-        <v>13.5</v>
+        <v>142.6</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>13.5</v>
+        <v>142.6</v>
       </c>
       <c r="AG14">
-        <v>9.300000000000001</v>
+        <v>142.597</v>
       </c>
       <c r="AH14">
-        <v>0.7012987012987013</v>
+        <v>0.9008212255211624</v>
       </c>
       <c r="AI14">
-        <v>0.7056978567694721</v>
+        <v>-0.7737384698860554</v>
       </c>
       <c r="AJ14">
-        <v>0.6179401993355482</v>
+        <v>0.9008193459130622</v>
       </c>
       <c r="AK14">
-        <v>0.6229068988613531</v>
+        <v>-0.7737095977819136</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Premier Leasing &amp; Finance Limited (DSE:PREMIERLEA)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>0.114</v>
-      </c>
-      <c r="E15">
-        <v>0.575</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.955</v>
-      </c>
-      <c r="L15">
-        <v>0.2720797720797721</v>
-      </c>
-      <c r="M15">
-        <v>0.052</v>
-      </c>
-      <c r="N15">
-        <v>0.004905660377358491</v>
-      </c>
-      <c r="O15">
-        <v>0.05445026178010471</v>
-      </c>
-      <c r="P15">
-        <v>0.052</v>
-      </c>
-      <c r="Q15">
-        <v>0.004905660377358491</v>
-      </c>
-      <c r="R15">
-        <v>0.05445026178010471</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>21.9</v>
-      </c>
-      <c r="V15">
-        <v>2.066037735849056</v>
-      </c>
-      <c r="W15">
-        <v>0.04098712446351931</v>
-      </c>
-      <c r="X15">
-        <v>0.0827522920016041</v>
-      </c>
-      <c r="Y15">
-        <v>-0.04176516753808478</v>
-      </c>
-      <c r="Z15">
-        <v>0.05725938009787927</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.05384445757846459</v>
-      </c>
-      <c r="AC15">
-        <v>-0.05384445757846459</v>
-      </c>
-      <c r="AD15">
-        <v>54.5</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>54.5</v>
-      </c>
-      <c r="AG15">
-        <v>32.6</v>
-      </c>
-      <c r="AH15">
-        <v>0.8371735791090631</v>
-      </c>
-      <c r="AI15">
-        <v>0.6526946107784432</v>
-      </c>
-      <c r="AJ15">
-        <v>0.7546296296296297</v>
-      </c>
-      <c r="AK15">
-        <v>0.5292207792207793</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fareast Finance &amp; Investment Limited (DSE:FAREASTFIN)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>-0</v>
-      </c>
-      <c r="H16">
-        <v>-0</v>
-      </c>
-      <c r="I16">
-        <v>-0</v>
-      </c>
-      <c r="J16">
-        <v>-0</v>
-      </c>
-      <c r="K16">
-        <v>-7.71</v>
-      </c>
-      <c r="L16">
-        <v>1.227707006369427</v>
-      </c>
-      <c r="M16">
-        <v>-0</v>
-      </c>
-      <c r="N16">
-        <v>-0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>-0</v>
-      </c>
-      <c r="Q16">
-        <v>-0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>5.73</v>
-      </c>
-      <c r="V16">
-        <v>0.9565943238731219</v>
-      </c>
-      <c r="W16">
-        <v>-0.7772177419354839</v>
-      </c>
-      <c r="X16">
-        <v>0.09340711104891677</v>
-      </c>
-      <c r="Y16">
-        <v>-0.8706248529844006</v>
-      </c>
-      <c r="Z16">
-        <v>-0.1444674488152749</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0.05447423900328063</v>
-      </c>
-      <c r="AC16">
-        <v>-0.05447423900328063</v>
-      </c>
-      <c r="AD16">
-        <v>37.3</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>37.3</v>
-      </c>
-      <c r="AG16">
-        <v>31.57</v>
-      </c>
-      <c r="AH16">
-        <v>0.8616308616308616</v>
-      </c>
-      <c r="AI16">
-        <v>0.9438259109311741</v>
-      </c>
-      <c r="AJ16">
-        <v>0.8405218317358892</v>
-      </c>
-      <c r="AK16">
-        <v>0.9343000887836638</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Bay Leasing &amp; Investment Limited (DSE:BAYLEASING)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>-0.213</v>
-      </c>
-      <c r="E17">
-        <v>0.0467</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>2.58</v>
-      </c>
-      <c r="L17">
-        <v>2.665289256198347</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0.04484304932735426</v>
-      </c>
-      <c r="O17">
-        <v>0.3875968992248062</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0.04484304932735426</v>
-      </c>
-      <c r="R17">
-        <v>0.3875968992248062</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>14.8</v>
-      </c>
-      <c r="V17">
-        <v>0.6636771300448431</v>
-      </c>
-      <c r="W17">
-        <v>0.08600000000000001</v>
-      </c>
-      <c r="X17">
-        <v>0.06996354844749904</v>
-      </c>
-      <c r="Y17">
-        <v>0.01603645155250097</v>
-      </c>
-      <c r="Z17">
-        <v>0.01010438413361169</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.05497638306936276</v>
-      </c>
-      <c r="AC17">
-        <v>-0.05497638306936276</v>
-      </c>
-      <c r="AD17">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="AG17">
-        <v>70.8</v>
-      </c>
-      <c r="AH17">
-        <v>0.7933271547729379</v>
-      </c>
-      <c r="AI17">
-        <v>0.7278911564625851</v>
-      </c>
-      <c r="AJ17">
-        <v>0.7604726100966702</v>
-      </c>
-      <c r="AK17">
-        <v>0.688715953307393</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>International Leasing and Financial Services Limited (DSE:ILFSL)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>-0.006059999999999999</v>
-      </c>
-      <c r="E18">
-        <v>-0.39</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0.132</v>
-      </c>
-      <c r="L18">
-        <v>0.02408759124087591</v>
-      </c>
-      <c r="M18">
-        <v>-0</v>
-      </c>
-      <c r="N18">
-        <v>-0</v>
-      </c>
-      <c r="O18">
-        <v>-0</v>
-      </c>
-      <c r="P18">
-        <v>-0</v>
-      </c>
-      <c r="Q18">
-        <v>-0</v>
-      </c>
-      <c r="R18">
-        <v>-0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0.02</v>
-      </c>
-      <c r="V18">
-        <v>0.001273885350318471</v>
-      </c>
-      <c r="W18">
-        <v>0.003905325443786983</v>
-      </c>
-      <c r="X18">
-        <v>0.1166232692927892</v>
-      </c>
-      <c r="Y18">
-        <v>-0.1127179438490022</v>
-      </c>
-      <c r="Z18">
-        <v>0.03332157754563476</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0.05790571273987859</v>
-      </c>
-      <c r="AC18">
-        <v>-0.05790571273987859</v>
-      </c>
-      <c r="AD18">
-        <v>134.9</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>134.9</v>
-      </c>
-      <c r="AG18">
-        <v>134.88</v>
-      </c>
-      <c r="AH18">
-        <v>0.8957503320053122</v>
-      </c>
-      <c r="AI18">
-        <v>0.8001186239620403</v>
-      </c>
-      <c r="AJ18">
-        <v>0.8957364855890557</v>
-      </c>
-      <c r="AK18">
-        <v>0.8000949104282834</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
         <v>0</v>
       </c>
     </row>
